--- a/TCO-working_mehdi.xlsx
+++ b/TCO-working_mehdi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://habibuniversity-my.sharepoint.com/personal/mk05198_st_habib_edu_pk/Documents/Academics-HU/Senior I/SupplyChain/HW/1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://habibuniversity-my.sharepoint.com/personal/mk05198_st_habib_edu_pk/Documents/Academics-HU/Senior I/SupplyChain/HW/1/total-costing/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:G32"/>
+    <sheetView topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:H32"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,13 +1108,13 @@
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="17">
-        <f>F4*(0.1*10/360+0.02)</f>
-        <v>1038666.6666666667</v>
+        <f>F4*(0.1*30/360)</f>
+        <v>380000</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="17">
-        <f>H4*(0.1*10/360+0.02)</f>
-        <v>1049600</v>
+        <f>H4*(0.1*20/360)</f>
+        <v>256000</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1126,8 +1126,8 @@
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
       <c r="F9" s="17">
-        <f>-F4*(0.1*10/360+0.02)</f>
-        <v>-1038666.6666666667</v>
+        <f>-F4*(0.1*15/360+0.01)</f>
+        <v>-646000</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="17">
@@ -1461,14 +1461,14 @@
       </c>
       <c r="F32" s="17">
         <f>SUM(F4:F30)</f>
-        <v>49772400</v>
+        <v>49506400</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>21</v>
       </c>
       <c r="H32" s="17">
         <f>SUM(H4:H30)</f>
-        <v>53688600</v>
+        <v>52895000</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
@@ -1481,6 +1481,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100946B5962AC0EE642B889CB197A2617FC" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7e8d889a8b2f3ef10d1473ff90fcfc78">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="319ba14a-5445-4af2-8742-a815eb51af51" xmlns:ns4="24943355-3d06-43c7-9b2b-1a24b6aee8df" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a10bf1b3018836c0580285c409bce06b" ns3:_="" ns4:_="">
     <xsd:import namespace="319ba14a-5445-4af2-8742-a815eb51af51"/>
@@ -1709,22 +1724,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E8DC5AB-7B4E-4835-8C47-C0624490CD65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="24943355-3d06-43c7-9b2b-1a24b6aee8df"/>
+    <ds:schemaRef ds:uri="319ba14a-5445-4af2-8742-a815eb51af51"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2F0C3B4-157E-4C11-9431-E4711E0C53EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54C6B8B1-A592-474E-846D-46F4CEB6D170}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1741,29 +1766,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2F0C3B4-157E-4C11-9431-E4711E0C53EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E8DC5AB-7B4E-4835-8C47-C0624490CD65}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="319ba14a-5445-4af2-8742-a815eb51af51"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="24943355-3d06-43c7-9b2b-1a24b6aee8df"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>